--- a/AI applications.xlsx
+++ b/AI applications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAU Research\Tasks 1\Metadata-Role of AI in IoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46039E99-B049-4872-998C-9343FC707C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974920E9-6B14-46CA-8634-F1FD8E9C2A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{A38C0F5B-00DD-41D2-A5FB-80768B96C542}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A38C0F5B-00DD-41D2-A5FB-80768B96C542}"/>
   </bookViews>
   <sheets>
     <sheet name="Applications" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="102">
   <si>
     <t>Source</t>
   </si>
@@ -310,9 +310,6 @@
   </si>
   <si>
     <t>Public Safety</t>
-  </si>
-  <si>
-    <t>Surveillance</t>
   </si>
   <si>
     <t>Environmnet</t>
@@ -542,17 +539,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,52 +675,49 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Application Chart'!$A$7:$A$21</c:f>
+              <c:f>'Application Chart'!$A$7:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>Waste Management </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Surveillance</c:v>
+                  <c:v>Military</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Military</c:v>
+                  <c:v>Education</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Education</c:v>
+                  <c:v>Logistics</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Logistics</c:v>
+                  <c:v>Public Safety</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Public Safety</c:v>
+                  <c:v>Emergency Response</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Emergency Response</c:v>
+                  <c:v>Buildings</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Buildings</c:v>
+                  <c:v>General</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>General</c:v>
+                  <c:v>Environmnet</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Environmnet</c:v>
+                  <c:v>Transportation</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Transportation</c:v>
+                  <c:v>Energy</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Energy</c:v>
+                  <c:v>Farming</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Farming</c:v>
+                  <c:v>Industry</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Industry</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>Healthcare</c:v>
                 </c:pt>
               </c:strCache>
@@ -731,53 +725,50 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Application Chart'!$B$7:$B$21</c:f>
+              <c:f>'Application Chart'!$B$7:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
@@ -1687,7 +1678,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>16932</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2015,24 +2006,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418B926F-3403-42F3-B2CE-D35910B6C883}">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="A83:XFD83"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N91" sqref="N91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="10.77734375" style="2" customWidth="1"/>
-    <col min="3" max="10" width="14" style="2" customWidth="1"/>
-    <col min="11" max="14" width="14" style="12" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" style="12" customWidth="1"/>
+    <col min="3" max="9" width="14" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14" style="12" customWidth="1"/>
+    <col min="11" max="11" width="14" style="2" customWidth="1"/>
+    <col min="12" max="13" width="14" style="12" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" style="2" customWidth="1"/>
     <col min="16" max="16" width="14" style="12" customWidth="1"/>
-    <col min="17" max="17" width="14.88671875" style="2" customWidth="1"/>
     <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2040,52 +2033,49 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>88</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>89</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="O1" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2093,52 +2083,49 @@
         <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>83</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2149,16 +2136,16 @@
         <v>83</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>83</v>
@@ -2166,32 +2153,29 @@
       <c r="I3" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>83</v>
+      <c r="J3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2199,19 +2183,19 @@
         <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>83</v>
@@ -2219,32 +2203,29 @@
       <c r="I4" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>96</v>
+      <c r="J4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2252,52 +2233,49 @@
         <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>96</v>
+      <c r="J5" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="N5" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="O5" s="11" t="s">
-        <v>83</v>
+      <c r="O5" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2305,52 +2283,49 @@
         <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>96</v>
+      <c r="J6" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2358,16 +2333,16 @@
         <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>83</v>
@@ -2378,32 +2353,29 @@
       <c r="I7" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>96</v>
+      <c r="J7" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2411,52 +2383,49 @@
         <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>96</v>
+      <c r="J8" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2464,52 +2433,49 @@
         <v>18</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2517,52 +2483,49 @@
         <v>19</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="Q10" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2570,52 +2533,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2623,52 +2583,49 @@
         <v>21</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2676,52 +2633,49 @@
         <v>22</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>96</v>
+      <c r="J13" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2729,52 +2683,49 @@
         <v>23</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>96</v>
+      <c r="J14" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2782,52 +2733,49 @@
         <v>24</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2835,52 +2783,49 @@
         <v>25</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>96</v>
+      <c r="J16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2888,52 +2833,49 @@
         <v>26</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2941,52 +2883,49 @@
         <v>27</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>96</v>
+      <c r="J18" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2994,52 +2933,49 @@
         <v>28</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O19" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3047,52 +2983,49 @@
         <v>29</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O20" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P20" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="Q20" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3100,52 +3033,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>96</v>
+      <c r="J21" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O21" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3153,52 +3083,49 @@
         <v>2</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O22" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P22" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="Q22" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3206,52 +3133,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J23" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>96</v>
+      <c r="J23" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O23" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3259,52 +3183,49 @@
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O24" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P24" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="Q24" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3312,52 +3233,49 @@
         <v>5</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O25" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3365,52 +3283,49 @@
         <v>6</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J26" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>96</v>
+      <c r="J26" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O26" s="11" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3418,52 +3333,49 @@
         <v>7</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>96</v>
+      <c r="J27" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O27" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3471,52 +3383,49 @@
         <v>8</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J28" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>96</v>
+      <c r="J28" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L28" s="11" t="s">
         <v>83</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O28" s="11" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3524,52 +3433,49 @@
         <v>9</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O29" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P29" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="Q29" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3577,52 +3483,49 @@
         <v>10</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O30" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="O30" s="6" t="s">
         <v>83</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q30" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -3630,52 +3533,49 @@
         <v>31</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J31" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>96</v>
+      <c r="J31" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O31" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P31" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q31" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3686,49 +3586,46 @@
         <v>83</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J32" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>96</v>
+      <c r="J32" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O32" s="11" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P32" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q32" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3736,52 +3633,49 @@
         <v>33</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O33" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P33" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q33" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3789,52 +3683,49 @@
         <v>34</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O34" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q34" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3842,52 +3733,49 @@
         <v>35</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L35" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O35" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q35" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3895,52 +3783,49 @@
         <v>36</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J36" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>96</v>
+      <c r="J36" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O36" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P36" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q36" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -3948,52 +3833,49 @@
         <v>37</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J37" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K37" s="11" t="s">
-        <v>96</v>
+      <c r="J37" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O37" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P37" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q37" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -4001,52 +3883,49 @@
         <v>38</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K38" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O38" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P38" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q38" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -4054,52 +3933,49 @@
         <v>39</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J39" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K39" s="11" t="s">
-        <v>96</v>
+      <c r="J39" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O39" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P39" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q39" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -4107,52 +3983,49 @@
         <v>40</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J40" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>96</v>
+      <c r="J40" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O40" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P40" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q40" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -4160,52 +4033,49 @@
         <v>41</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K41" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O41" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P41" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q41" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -4213,52 +4083,49 @@
         <v>42</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K42" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O42" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P42" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q42" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -4266,52 +4133,49 @@
         <v>43</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K43" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O43" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P43" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q43" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -4319,52 +4183,49 @@
         <v>44</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J44" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>96</v>
+      <c r="J44" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O44" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P44" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q44" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -4372,52 +4233,49 @@
         <v>45</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L45" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O45" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P45" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="Q45" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -4425,52 +4283,49 @@
         <v>46</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J46" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K46" s="11" t="s">
-        <v>96</v>
+      <c r="J46" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O46" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P46" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q46" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -4484,13 +4339,13 @@
         <v>83</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>83</v>
@@ -4498,32 +4353,29 @@
       <c r="I47" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J47" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>96</v>
+      <c r="J47" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O47" s="11" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P47" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q47" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -4531,52 +4383,49 @@
         <v>48</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J48" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>96</v>
+      <c r="J48" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L48" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O48" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O48" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P48" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q48" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -4584,52 +4433,49 @@
         <v>49</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J49" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K49" s="11" t="s">
-        <v>96</v>
+      <c r="J49" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L49" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O49" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O49" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P49" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q49" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>50</v>
       </c>
@@ -4637,52 +4483,49 @@
         <v>50</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K50" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O50" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O50" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P50" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q50" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>51</v>
       </c>
@@ -4690,52 +4533,49 @@
         <v>51</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J51" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K51" s="11" t="s">
-        <v>96</v>
+      <c r="J51" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L51" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O51" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P51" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q51" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>52</v>
       </c>
@@ -4743,52 +4583,49 @@
         <v>52</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O52" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O52" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P52" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q52" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>53</v>
       </c>
@@ -4796,52 +4633,49 @@
         <v>53</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K53" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L53" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O53" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P53" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="Q53" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>54</v>
       </c>
@@ -4849,52 +4683,49 @@
         <v>54</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="O54" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P54" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q54" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>55</v>
       </c>
@@ -4902,52 +4733,49 @@
         <v>55</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K55" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L55" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O55" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P55" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q55" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>56</v>
       </c>
@@ -4955,52 +4783,49 @@
         <v>56</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K56" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O56" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O56" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P56" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q56" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>57</v>
       </c>
@@ -5008,52 +4833,49 @@
         <v>57</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J57" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K57" s="11" t="s">
-        <v>96</v>
+      <c r="J57" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L57" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O57" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P57" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q57" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>58</v>
       </c>
@@ -5061,52 +4883,49 @@
         <v>58</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K58" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L58" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O58" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O58" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P58" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q58" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>59</v>
       </c>
@@ -5114,52 +4933,49 @@
         <v>59</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K59" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L59" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O59" s="11" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="O59" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P59" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q59" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>60</v>
       </c>
@@ -5167,52 +4983,49 @@
         <v>60</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J60" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K60" s="11" t="s">
-        <v>96</v>
+      <c r="J60" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L60" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O60" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O60" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P60" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q60" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>61</v>
       </c>
@@ -5220,52 +5033,49 @@
         <v>61</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K61" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L61" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O61" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O61" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P61" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="Q61" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>62</v>
       </c>
@@ -5273,52 +5083,49 @@
         <v>62</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J62" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K62" s="11" t="s">
-        <v>96</v>
+      <c r="J62" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L62" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N62" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O62" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O62" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P62" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q62" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>64</v>
       </c>
@@ -5326,52 +5133,49 @@
         <v>63</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J63" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K63" s="11" t="s">
-        <v>96</v>
+      <c r="J63" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L63" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M63" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N63" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O63" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O63" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P63" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q63" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>65</v>
       </c>
@@ -5379,52 +5183,49 @@
         <v>64</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J64" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K64" s="11" t="s">
-        <v>96</v>
+      <c r="J64" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L64" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M64" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N64" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O64" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O64" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P64" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q64" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>66</v>
       </c>
@@ -5432,16 +5233,16 @@
         <v>65</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>83</v>
@@ -5450,34 +5251,31 @@
         <v>83</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K65" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L65" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M65" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N65" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O65" s="11" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="O65" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P65" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q65" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>67</v>
       </c>
@@ -5485,52 +5283,49 @@
         <v>66</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K66" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L66" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N66" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O66" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O66" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P66" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="Q66" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>68</v>
       </c>
@@ -5538,52 +5333,49 @@
         <v>67</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K67" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L67" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N67" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O67" s="11" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="O67" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P67" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q67" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>69</v>
       </c>
@@ -5591,52 +5383,49 @@
         <v>68</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K68" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L68" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M68" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N68" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O68" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O68" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P68" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q68" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>70</v>
       </c>
@@ -5644,52 +5433,49 @@
         <v>69</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J69" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K69" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L69" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M69" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N69" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O69" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O69" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P69" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q69" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>71</v>
       </c>
@@ -5697,52 +5483,49 @@
         <v>70</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K70" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L70" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N70" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O70" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O70" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P70" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="Q70" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>72</v>
       </c>
@@ -5750,52 +5533,49 @@
         <v>71</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J71" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K71" s="11" t="s">
-        <v>96</v>
+      <c r="J71" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L71" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N71" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O71" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O71" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P71" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q71" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>73</v>
       </c>
@@ -5803,52 +5583,49 @@
         <v>72</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J72" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K72" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L72" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M72" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N72" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O72" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O72" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P72" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="Q72" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>74</v>
       </c>
@@ -5856,52 +5633,49 @@
         <v>73</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J73" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K73" s="11" t="s">
-        <v>96</v>
+      <c r="J73" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L73" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M73" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N73" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O73" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O73" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P73" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q73" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>75</v>
       </c>
@@ -5909,52 +5683,49 @@
         <v>74</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J74" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K74" s="11" t="s">
-        <v>96</v>
+      <c r="J74" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M74" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N74" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O74" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O74" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P74" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q74" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>76</v>
       </c>
@@ -5962,52 +5733,49 @@
         <v>75</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J75" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K75" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L75" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M75" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N75" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O75" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O75" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P75" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q75" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>77</v>
       </c>
@@ -6015,52 +5783,49 @@
         <v>76</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>83</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J76" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K76" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L76" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M76" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N76" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O76" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O76" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P76" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q76" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>78</v>
       </c>
@@ -6068,52 +5833,49 @@
         <v>77</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J77" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K77" s="11" t="s">
-        <v>96</v>
+      <c r="J77" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L77" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N77" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O77" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O77" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P77" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q77" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>79</v>
       </c>
@@ -6121,52 +5883,49 @@
         <v>78</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>83</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J78" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K78" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N78" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O78" s="11" t="s">
-        <v>83</v>
+        <v>83</v>
+      </c>
+      <c r="O78" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P78" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q78" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>80</v>
       </c>
@@ -6174,52 +5933,49 @@
         <v>79</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J79" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K79" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M79" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N79" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O79" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O79" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P79" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q79" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>81</v>
       </c>
@@ -6227,52 +5983,49 @@
         <v>80</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J80" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K80" s="11" t="s">
-        <v>96</v>
+      <c r="J80" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L80" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M80" s="11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="N80" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O80" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O80" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P80" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q80" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>82</v>
       </c>
@@ -6280,52 +6033,49 @@
         <v>81</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J81" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K81" s="11" t="s">
-        <v>96</v>
+      <c r="J81" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M81" s="11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="N81" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O81" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O81" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P81" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q81" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>83</v>
       </c>
@@ -6333,115 +6083,108 @@
         <v>82</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J82" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K82" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M82" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N82" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O82" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O82" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="P82" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="Q82" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" s="19" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="16" t="s">
+    </row>
+    <row r="83" spans="1:16" s="17" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="18">
-        <f>COUNTIF(C2:C82, "X")</f>
-        <v>17</v>
-      </c>
-      <c r="D83" s="18">
-        <f t="shared" ref="D83:Q83" si="0">COUNTIF(D2:D82, "X")</f>
+      <c r="B83" s="19"/>
+      <c r="C83" s="16">
+        <f t="shared" ref="C83:P83" si="0">COUNTIF(C2:C82, "X")</f>
         <v>11</v>
       </c>
-      <c r="E83" s="18">
+      <c r="D83" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F83" s="18">
+      <c r="E83" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G83" s="18">
+      <c r="F83" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H83" s="18">
+      <c r="G83" s="16">
+        <f>COUNTIF(G2:G82, "X")</f>
+        <v>13</v>
+      </c>
+      <c r="H83" s="16">
         <f>COUNTIF(H2:H82, "X")</f>
-        <v>13</v>
-      </c>
-      <c r="I83" s="18">
+        <v>17</v>
+      </c>
+      <c r="I83" s="16">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="J83" s="18">
+      <c r="J83" s="16">
+        <f>COUNTIF(J2:J82, "X")</f>
+        <v>17</v>
+      </c>
+      <c r="K83" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K83" s="18">
-        <f t="shared" si="0"/>
+      <c r="L83" s="16">
+        <f t="shared" ref="L83" si="1">COUNTIF(L2:L82, "X")</f>
+        <v>2</v>
+      </c>
+      <c r="M83" s="16">
+        <f>COUNTIF(M2:M82, "X")</f>
+        <v>4</v>
+      </c>
+      <c r="N83" s="16">
+        <f t="shared" ref="N83" si="2">COUNTIF(N2:N82, "X")</f>
+        <v>14</v>
+      </c>
+      <c r="O83" s="16">
+        <f>COUNTIF(O2:O82, "X")</f>
         <v>1</v>
       </c>
-      <c r="L83" s="18">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M83" s="18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="N83" s="18">
-        <f>COUNTIF(N2:N82, "X")</f>
-        <v>4</v>
-      </c>
-      <c r="O83" s="18">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="P83" s="18">
+      <c r="P83" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
-      </c>
-      <c r="Q83" s="18">
-        <f t="shared" si="0"/>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6456,10 +6199,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF14A5F-3BD7-457E-8B28-90A7DBD105E9}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6472,29 +6215,29 @@
     <col min="14" max="15" width="11.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="str">
+        <f>Applications!H1</f>
+        <v>Farming</v>
+      </c>
+      <c r="B1" s="10" t="str">
         <f>Applications!C1</f>
-        <v>Farming</v>
-      </c>
-      <c r="B1" s="10" t="str">
+        <v>Buildings</v>
+      </c>
+      <c r="C1" s="10" t="str">
         <f>Applications!D1</f>
-        <v>Buildings</v>
-      </c>
-      <c r="C1" s="10" t="str">
+        <v>Emergency Response</v>
+      </c>
+      <c r="D1" s="10" t="str">
         <f>Applications!E1</f>
-        <v>Emergency Response</v>
-      </c>
-      <c r="D1" s="10" t="str">
+        <v>Education</v>
+      </c>
+      <c r="E1" s="10" t="str">
         <f>Applications!F1</f>
-        <v>Education</v>
-      </c>
-      <c r="E1" s="10" t="str">
+        <v>Energy</v>
+      </c>
+      <c r="F1" s="10" t="str">
         <f>Applications!G1</f>
-        <v>Energy</v>
-      </c>
-      <c r="F1" s="10" t="str">
-        <f>Applications!H1</f>
         <v>Environment</v>
       </c>
       <c r="G1" s="10" t="str">
@@ -6502,61 +6245,61 @@
         <v>Healthcare</v>
       </c>
       <c r="H1" s="10" t="str">
+        <f>Applications!K1</f>
+        <v>Logistics</v>
+      </c>
+      <c r="I1" s="10" t="e">
+        <f>Applications!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J1" s="10" t="e">
+        <f>Applications!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K1" s="10" t="str">
         <f>Applications!J1</f>
-        <v>Logistics</v>
-      </c>
-      <c r="I1" s="10" t="str">
-        <f>Applications!K1</f>
-        <v>Surveillance</v>
-      </c>
-      <c r="J1" s="10" t="str">
-        <f>Applications!L1</f>
-        <v>Military</v>
-      </c>
-      <c r="K1" s="10" t="str">
+        <v>Industry</v>
+      </c>
+      <c r="L1" s="10" t="str">
         <f>Applications!M1</f>
-        <v>Industry</v>
-      </c>
-      <c r="L1" s="10" t="str">
-        <f>Applications!N1</f>
         <v>Public Safety</v>
       </c>
-      <c r="M1" s="10" t="str">
-        <f>Applications!O1</f>
-        <v>Transportation</v>
+      <c r="M1" s="10" t="e">
+        <f>Applications!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="N1" s="9" t="str">
         <f>Applications!P1</f>
         <v>General</v>
       </c>
       <c r="O1" s="10" t="str">
-        <f>Applications!Q1</f>
+        <f>Applications!O1</f>
         <v>Waste Management</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
+        <f>Applications!H83</f>
+        <v>17</v>
+      </c>
+      <c r="B2" s="10">
         <f>Applications!C83</f>
-        <v>17</v>
-      </c>
-      <c r="B2" s="10">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10">
         <f>Applications!D83</f>
-        <v>11</v>
-      </c>
-      <c r="C2" s="10">
+        <v>5</v>
+      </c>
+      <c r="D2" s="10">
         <f>Applications!E83</f>
-        <v>5</v>
-      </c>
-      <c r="D2" s="10">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10">
         <f>Applications!F83</f>
-        <v>2</v>
-      </c>
-      <c r="E2" s="10">
+        <v>15</v>
+      </c>
+      <c r="F2" s="10">
         <f>Applications!G83</f>
-        <v>15</v>
-      </c>
-      <c r="F2" s="10">
-        <f>Applications!H83</f>
         <v>13</v>
       </c>
       <c r="G2" s="10">
@@ -6564,35 +6307,35 @@
         <v>38</v>
       </c>
       <c r="H2" s="10">
+        <f>Applications!K83</f>
+        <v>4</v>
+      </c>
+      <c r="I2" s="10" t="e">
+        <f>Applications!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J2" s="10" t="e">
+        <f>Applications!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K2" s="10">
         <f>Applications!J83</f>
+        <v>17</v>
+      </c>
+      <c r="L2" s="10">
+        <f>Applications!M83</f>
         <v>4</v>
       </c>
-      <c r="I2" s="10">
-        <f>Applications!K83</f>
-        <v>1</v>
-      </c>
-      <c r="J2" s="10">
-        <f>Applications!L83</f>
-        <v>2</v>
-      </c>
-      <c r="K2" s="10">
-        <f>Applications!M83</f>
-        <v>17</v>
-      </c>
-      <c r="L2" s="10">
-        <f>Applications!N83</f>
-        <v>4</v>
-      </c>
-      <c r="M2" s="10">
-        <f>Applications!O83</f>
-        <v>14</v>
+      <c r="M2" s="10" t="e">
+        <f>Applications!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="N2" s="9">
         <f>Applications!P83</f>
         <v>12</v>
       </c>
       <c r="O2" s="10">
-        <f>Applications!Q83</f>
+        <f>Applications!O83</f>
         <v>1</v>
       </c>
     </row>
@@ -6615,7 +6358,7 @@
     </row>
     <row r="7" spans="1:15" s="15" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="13">
         <v>1</v>
@@ -6636,10 +6379,10 @@
     </row>
     <row r="8" spans="1:15" s="15" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -6657,7 +6400,7 @@
     </row>
     <row r="9" spans="1:15" s="15" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B9" s="13">
         <v>2</v>
@@ -6678,10 +6421,10 @@
     </row>
     <row r="10" spans="1:15" s="15" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B10" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -6699,7 +6442,7 @@
     </row>
     <row r="11" spans="1:15" s="15" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B11" s="13">
         <v>4</v>
@@ -6720,10 +6463,10 @@
     </row>
     <row r="12" spans="1:15" s="15" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B12" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -6744,7 +6487,7 @@
         <v>99</v>
       </c>
       <c r="B13" s="13">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -6762,10 +6505,10 @@
     </row>
     <row r="14" spans="1:15" s="15" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B14" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -6783,10 +6526,10 @@
     </row>
     <row r="15" spans="1:15" s="15" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B15" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -6804,10 +6547,10 @@
     </row>
     <row r="16" spans="1:15" s="15" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B16" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -6825,10 +6568,10 @@
     </row>
     <row r="17" spans="1:15" s="15" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B17" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -6846,10 +6589,10 @@
     </row>
     <row r="18" spans="1:15" s="15" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B18" s="13">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -6867,7 +6610,7 @@
     </row>
     <row r="19" spans="1:15" s="15" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B19" s="13">
         <v>17</v>
@@ -6888,10 +6631,10 @@
     </row>
     <row r="20" spans="1:15" s="15" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B20" s="13">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -6908,12 +6651,8 @@
       <c r="O20" s="14"/>
     </row>
     <row r="21" spans="1:15" s="15" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="13">
-        <v>38</v>
-      </c>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -6928,26 +6667,9 @@
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
     </row>
-    <row r="22" spans="1:15" s="15" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:B21">
-    <sortCondition ref="B7:B21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:B20">
+    <sortCondition ref="B7:B20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
